--- a/ui/src/upload-files/files/division/import.division.duplicate.two.level.failed.xlsx
+++ b/ui/src/upload-files/files/division/import.division.duplicate.two.level.failed.xlsx
@@ -43,7 +43,26 @@
     <t xml:space="preserve">Сопровождающий</t>
   </si>
   <si>
-    <t xml:space="preserve">importDuplicateTwoLevelName2</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">importDuplicateTwoLevelName1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">importDuplicateTwoLevelName2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -53,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,6 +108,13 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,7 +200,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,11 +208,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +292,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -319,13 +341,13 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
